--- a/data/misused_bar_graph_figures/cell/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA10769-1D4D-724A-8CC4-E8D280E2CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D9C83-47A3-2047-B23B-D6D39E5EB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="564">
   <si>
     <t>Fig Index</t>
   </si>
@@ -1666,9 +1666,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>Coloy count</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -1678,18 +1675,12 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Absorbance</t>
-  </si>
-  <si>
     <t>Cytokine concentration</t>
   </si>
   <si>
@@ -1705,28 +1696,22 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>ID50</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Mass</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
-    <t>RNA count</t>
-  </si>
-  <si>
     <t># significantly associated</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Colony count</t>
   </si>
 </sst>
 </file>
@@ -2139,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G170" zoomScale="183" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="183" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2842,10 +2827,10 @@
         <v>545</v>
       </c>
       <c r="I20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K20" t="s">
         <v>542</v>
@@ -2947,10 +2932,10 @@
         <v>545</v>
       </c>
       <c r="I23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K23" t="s">
         <v>542</v>
@@ -2982,10 +2967,10 @@
         <v>545</v>
       </c>
       <c r="I24" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K24" t="s">
         <v>542</v>
@@ -3017,10 +3002,10 @@
         <v>545</v>
       </c>
       <c r="I25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K25" t="s">
         <v>542</v>
@@ -3052,10 +3037,10 @@
         <v>545</v>
       </c>
       <c r="I26" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K26" t="s">
         <v>542</v>
@@ -3087,10 +3072,10 @@
         <v>545</v>
       </c>
       <c r="I27" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K27" t="s">
         <v>542</v>
@@ -3122,10 +3107,10 @@
         <v>545</v>
       </c>
       <c r="I28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K28" t="s">
         <v>542</v>
@@ -3297,10 +3282,10 @@
         <v>545</v>
       </c>
       <c r="I33" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K33" t="s">
         <v>542</v>
@@ -3612,10 +3597,10 @@
         <v>545</v>
       </c>
       <c r="I42" t="s">
+        <v>563</v>
+      </c>
+      <c r="J42" t="s">
         <v>548</v>
-      </c>
-      <c r="J42" t="s">
-        <v>549</v>
       </c>
       <c r="K42" t="s">
         <v>542</v>
@@ -3647,10 +3632,10 @@
         <v>545</v>
       </c>
       <c r="I43" t="s">
+        <v>563</v>
+      </c>
+      <c r="J43" t="s">
         <v>548</v>
-      </c>
-      <c r="J43" t="s">
-        <v>549</v>
       </c>
       <c r="K43" t="s">
         <v>542</v>
@@ -3682,10 +3667,10 @@
         <v>545</v>
       </c>
       <c r="I44" t="s">
+        <v>563</v>
+      </c>
+      <c r="J44" t="s">
         <v>548</v>
-      </c>
-      <c r="J44" t="s">
-        <v>549</v>
       </c>
       <c r="K44" t="s">
         <v>542</v>
@@ -3717,10 +3702,10 @@
         <v>545</v>
       </c>
       <c r="I45" t="s">
+        <v>563</v>
+      </c>
+      <c r="J45" t="s">
         <v>548</v>
-      </c>
-      <c r="J45" t="s">
-        <v>549</v>
       </c>
       <c r="K45" t="s">
         <v>542</v>
@@ -3752,10 +3737,10 @@
         <v>545</v>
       </c>
       <c r="I46" t="s">
+        <v>563</v>
+      </c>
+      <c r="J46" t="s">
         <v>548</v>
-      </c>
-      <c r="J46" t="s">
-        <v>549</v>
       </c>
       <c r="K46" t="s">
         <v>542</v>
@@ -3787,10 +3772,10 @@
         <v>545</v>
       </c>
       <c r="I47" t="s">
+        <v>563</v>
+      </c>
+      <c r="J47" t="s">
         <v>548</v>
-      </c>
-      <c r="J47" t="s">
-        <v>549</v>
       </c>
       <c r="K47" t="s">
         <v>542</v>
@@ -3889,13 +3874,13 @@
         <v>543</v>
       </c>
       <c r="H50" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I50" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J50" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K50" t="s">
         <v>542</v>
@@ -4939,13 +4924,13 @@
         <v>543</v>
       </c>
       <c r="H80" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I80" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J80" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K80" t="s">
         <v>542</v>
@@ -5044,13 +5029,13 @@
         <v>543</v>
       </c>
       <c r="H83" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I83" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J83" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K83" t="s">
         <v>542</v>
@@ -5079,13 +5064,13 @@
         <v>543</v>
       </c>
       <c r="H84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K84" t="s">
         <v>542</v>
@@ -5114,13 +5099,13 @@
         <v>543</v>
       </c>
       <c r="H85" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I85" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J85" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K85" t="s">
         <v>542</v>
@@ -5187,10 +5172,10 @@
         <v>545</v>
       </c>
       <c r="I87" t="s">
+        <v>549</v>
+      </c>
+      <c r="J87" t="s">
         <v>550</v>
-      </c>
-      <c r="J87" t="s">
-        <v>551</v>
       </c>
       <c r="K87" t="s">
         <v>542</v>
@@ -5222,10 +5207,10 @@
         <v>545</v>
       </c>
       <c r="I88" t="s">
+        <v>549</v>
+      </c>
+      <c r="J88" t="s">
         <v>550</v>
-      </c>
-      <c r="J88" t="s">
-        <v>551</v>
       </c>
       <c r="K88" t="s">
         <v>542</v>
@@ -5327,10 +5312,10 @@
         <v>545</v>
       </c>
       <c r="I91" t="s">
+        <v>563</v>
+      </c>
+      <c r="J91" t="s">
         <v>548</v>
-      </c>
-      <c r="J91" t="s">
-        <v>549</v>
       </c>
       <c r="K91" t="s">
         <v>542</v>
@@ -5537,10 +5522,10 @@
         <v>545</v>
       </c>
       <c r="I97" t="s">
+        <v>563</v>
+      </c>
+      <c r="J97" t="s">
         <v>548</v>
-      </c>
-      <c r="J97" t="s">
-        <v>549</v>
       </c>
       <c r="K97" t="s">
         <v>542</v>
@@ -5817,10 +5802,10 @@
         <v>545</v>
       </c>
       <c r="I105" t="s">
+        <v>563</v>
+      </c>
+      <c r="J105" t="s">
         <v>548</v>
-      </c>
-      <c r="J105" t="s">
-        <v>549</v>
       </c>
       <c r="K105" t="s">
         <v>542</v>
@@ -5922,7 +5907,7 @@
         <v>545</v>
       </c>
       <c r="I108" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J108" t="s">
         <v>547</v>
@@ -5957,10 +5942,10 @@
         <v>545</v>
       </c>
       <c r="I109" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="J109" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K109" t="s">
         <v>542</v>
@@ -5992,10 +5977,10 @@
         <v>545</v>
       </c>
       <c r="I110" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="J110" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K110" t="s">
         <v>542</v>
@@ -6447,10 +6432,10 @@
         <v>545</v>
       </c>
       <c r="I123" t="s">
+        <v>563</v>
+      </c>
+      <c r="J123" t="s">
         <v>548</v>
-      </c>
-      <c r="J123" t="s">
-        <v>549</v>
       </c>
       <c r="K123" t="s">
         <v>542</v>
@@ -7707,10 +7692,10 @@
         <v>545</v>
       </c>
       <c r="I159" t="s">
+        <v>563</v>
+      </c>
+      <c r="J159" t="s">
         <v>548</v>
-      </c>
-      <c r="J159" t="s">
-        <v>549</v>
       </c>
       <c r="K159" t="s">
         <v>542</v>
@@ -7742,10 +7727,10 @@
         <v>545</v>
       </c>
       <c r="I160" t="s">
+        <v>563</v>
+      </c>
+      <c r="J160" t="s">
         <v>548</v>
-      </c>
-      <c r="J160" t="s">
-        <v>549</v>
       </c>
       <c r="K160" t="s">
         <v>542</v>
@@ -7777,10 +7762,10 @@
         <v>545</v>
       </c>
       <c r="I161" t="s">
+        <v>563</v>
+      </c>
+      <c r="J161" t="s">
         <v>548</v>
-      </c>
-      <c r="J161" t="s">
-        <v>549</v>
       </c>
       <c r="K161" t="s">
         <v>542</v>
@@ -7812,10 +7797,10 @@
         <v>545</v>
       </c>
       <c r="I162" t="s">
+        <v>563</v>
+      </c>
+      <c r="J162" t="s">
         <v>548</v>
-      </c>
-      <c r="J162" t="s">
-        <v>549</v>
       </c>
       <c r="K162" t="s">
         <v>542</v>
@@ -7847,10 +7832,10 @@
         <v>545</v>
       </c>
       <c r="I163" t="s">
+        <v>563</v>
+      </c>
+      <c r="J163" t="s">
         <v>548</v>
-      </c>
-      <c r="J163" t="s">
-        <v>549</v>
       </c>
       <c r="K163" t="s">
         <v>542</v>
@@ -7882,10 +7867,10 @@
         <v>545</v>
       </c>
       <c r="I164" t="s">
+        <v>563</v>
+      </c>
+      <c r="J164" t="s">
         <v>548</v>
-      </c>
-      <c r="J164" t="s">
-        <v>549</v>
       </c>
       <c r="K164" t="s">
         <v>542</v>
@@ -8267,7 +8252,7 @@
         <v>545</v>
       </c>
       <c r="I175" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J175" t="s">
         <v>547</v>
@@ -8302,7 +8287,7 @@
         <v>545</v>
       </c>
       <c r="I176" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J176" t="s">
         <v>547</v>
@@ -8337,7 +8322,7 @@
         <v>545</v>
       </c>
       <c r="I177" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J177" t="s">
         <v>547</v>
@@ -8372,7 +8357,7 @@
         <v>545</v>
       </c>
       <c r="I178" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J178" t="s">
         <v>547</v>
@@ -8407,7 +8392,7 @@
         <v>545</v>
       </c>
       <c r="I179" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J179" t="s">
         <v>547</v>
@@ -8442,7 +8427,7 @@
         <v>545</v>
       </c>
       <c r="I180" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J180" t="s">
         <v>547</v>
@@ -8503,7 +8488,7 @@
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G182" t="s">
         <v>544</v>
@@ -8512,10 +8497,10 @@
         <v>545</v>
       </c>
       <c r="I182" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J182" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K182" t="s">
         <v>542</v>
@@ -8544,13 +8529,13 @@
         <v>543</v>
       </c>
       <c r="H183" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I183" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J183" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K183" t="s">
         <v>542</v>
@@ -8582,10 +8567,10 @@
         <v>545</v>
       </c>
       <c r="I184" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J184" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K184" t="s">
         <v>542</v>
@@ -8617,10 +8602,10 @@
         <v>545</v>
       </c>
       <c r="I185" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J185" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K185" t="s">
         <v>542</v>
@@ -8722,10 +8707,10 @@
         <v>545</v>
       </c>
       <c r="I188" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J188" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="K188" t="s">
         <v>542</v>
@@ -8757,10 +8742,10 @@
         <v>545</v>
       </c>
       <c r="I189" t="s">
+        <v>563</v>
+      </c>
+      <c r="J189" t="s">
         <v>548</v>
-      </c>
-      <c r="J189" t="s">
-        <v>549</v>
       </c>
       <c r="K189" t="s">
         <v>542</v>
@@ -8789,13 +8774,13 @@
         <v>543</v>
       </c>
       <c r="H190" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I190" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J190" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K190" t="s">
         <v>542</v>
@@ -8824,13 +8809,13 @@
         <v>543</v>
       </c>
       <c r="H191" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I191" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J191" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K191" t="s">
         <v>542</v>
@@ -8859,13 +8844,13 @@
         <v>543</v>
       </c>
       <c r="H192" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I192" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J192" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K192" t="s">
         <v>542</v>
@@ -8894,13 +8879,13 @@
         <v>543</v>
       </c>
       <c r="H193" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I193" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J193" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K193" t="s">
         <v>542</v>
@@ -8929,13 +8914,13 @@
         <v>543</v>
       </c>
       <c r="H194" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I194" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J194" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K194" t="s">
         <v>542</v>
@@ -8964,13 +8949,13 @@
         <v>543</v>
       </c>
       <c r="H195" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I195" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J195" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K195" t="s">
         <v>542</v>
@@ -8999,13 +8984,13 @@
         <v>543</v>
       </c>
       <c r="H196" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I196" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J196" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K196" t="s">
         <v>542</v>
@@ -9034,13 +9019,13 @@
         <v>543</v>
       </c>
       <c r="H197" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I197" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J197" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K197" t="s">
         <v>542</v>
@@ -9069,13 +9054,13 @@
         <v>543</v>
       </c>
       <c r="H198" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I198" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J198" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K198" t="s">
         <v>542</v>
@@ -9174,13 +9159,13 @@
         <v>543</v>
       </c>
       <c r="H201" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I201" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K201" t="s">
         <v>542</v>
@@ -9209,13 +9194,13 @@
         <v>543</v>
       </c>
       <c r="H202" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I202" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K202" t="s">
         <v>542</v>
@@ -9244,13 +9229,13 @@
         <v>543</v>
       </c>
       <c r="H203" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I203" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K203" t="s">
         <v>542</v>
@@ -9279,13 +9264,13 @@
         <v>543</v>
       </c>
       <c r="H204" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I204" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J204" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K204" t="s">
         <v>542</v>
@@ -9314,13 +9299,13 @@
         <v>543</v>
       </c>
       <c r="H205" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I205" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K205" t="s">
         <v>542</v>
@@ -9349,13 +9334,13 @@
         <v>543</v>
       </c>
       <c r="H206" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I206" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K206" t="s">
         <v>542</v>
@@ -9419,13 +9404,13 @@
         <v>543</v>
       </c>
       <c r="H208" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I208" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J208" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K208" t="s">
         <v>542</v>
@@ -9454,13 +9439,13 @@
         <v>543</v>
       </c>
       <c r="H209" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I209" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J209" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K209" t="s">
         <v>542</v>
@@ -9489,13 +9474,13 @@
         <v>543</v>
       </c>
       <c r="H210" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I210" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K210" t="s">
         <v>542</v>
@@ -9524,13 +9509,13 @@
         <v>543</v>
       </c>
       <c r="H211" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I211" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J211" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K211" t="s">
         <v>542</v>
@@ -9594,13 +9579,13 @@
         <v>543</v>
       </c>
       <c r="H213" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I213" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K213" t="s">
         <v>542</v>
@@ -9629,13 +9614,13 @@
         <v>543</v>
       </c>
       <c r="H214" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I214" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K214" t="s">
         <v>542</v>
@@ -9664,13 +9649,13 @@
         <v>543</v>
       </c>
       <c r="H215" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I215" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J215" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K215" t="s">
         <v>542</v>
@@ -9699,13 +9684,13 @@
         <v>543</v>
       </c>
       <c r="H216" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I216" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K216" t="s">
         <v>542</v>
@@ -9734,13 +9719,13 @@
         <v>543</v>
       </c>
       <c r="H217" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I217" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K217" t="s">
         <v>542</v>
@@ -9769,13 +9754,13 @@
         <v>543</v>
       </c>
       <c r="H218" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I218" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J218" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K218" t="s">
         <v>542</v>
@@ -9839,13 +9824,13 @@
         <v>543</v>
       </c>
       <c r="H220" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I220" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J220" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K220" t="s">
         <v>542</v>
@@ -9874,13 +9859,13 @@
         <v>543</v>
       </c>
       <c r="H221" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I221" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J221" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K221" t="s">
         <v>542</v>
@@ -9909,13 +9894,13 @@
         <v>543</v>
       </c>
       <c r="H222" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I222" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K222" t="s">
         <v>542</v>
@@ -9944,13 +9929,13 @@
         <v>543</v>
       </c>
       <c r="H223" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I223" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K223" t="s">
         <v>542</v>
@@ -9979,13 +9964,13 @@
         <v>543</v>
       </c>
       <c r="H224" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I224" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K224" t="s">
         <v>542</v>
@@ -10014,13 +9999,13 @@
         <v>543</v>
       </c>
       <c r="H225" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I225" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K225" t="s">
         <v>542</v>
@@ -10049,13 +10034,13 @@
         <v>543</v>
       </c>
       <c r="H226" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I226" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K226" t="s">
         <v>542</v>
@@ -10084,13 +10069,13 @@
         <v>543</v>
       </c>
       <c r="H227" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I227" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J227" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K227" t="s">
         <v>542</v>
@@ -10119,13 +10104,13 @@
         <v>543</v>
       </c>
       <c r="H228" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I228" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J228" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K228" t="s">
         <v>542</v>
@@ -10157,10 +10142,10 @@
         <v>545</v>
       </c>
       <c r="I229" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J229" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K229" t="s">
         <v>542</v>
@@ -10192,10 +10177,10 @@
         <v>545</v>
       </c>
       <c r="I230" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J230" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K230" t="s">
         <v>542</v>
@@ -10227,10 +10212,10 @@
         <v>545</v>
       </c>
       <c r="I231" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J231" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K231" t="s">
         <v>542</v>
@@ -10297,10 +10282,10 @@
         <v>545</v>
       </c>
       <c r="I233" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J233" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K233" t="s">
         <v>542</v>
@@ -10332,10 +10317,10 @@
         <v>545</v>
       </c>
       <c r="I234" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J234" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K234" t="s">
         <v>542</v>
@@ -10367,10 +10352,10 @@
         <v>545</v>
       </c>
       <c r="I235" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J235" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K235" t="s">
         <v>542</v>
@@ -10402,10 +10387,10 @@
         <v>545</v>
       </c>
       <c r="I236" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J236" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K236" t="s">
         <v>542</v>
@@ -10437,10 +10422,10 @@
         <v>545</v>
       </c>
       <c r="I237" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J237" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K237" t="s">
         <v>542</v>
@@ -10472,10 +10457,10 @@
         <v>545</v>
       </c>
       <c r="I238" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J238" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K238" t="s">
         <v>542</v>
@@ -10507,10 +10492,10 @@
         <v>545</v>
       </c>
       <c r="I239" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J239" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K239" t="s">
         <v>542</v>
@@ -10542,10 +10527,10 @@
         <v>545</v>
       </c>
       <c r="I240" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J240" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K240" t="s">
         <v>542</v>
@@ -10577,10 +10562,10 @@
         <v>545</v>
       </c>
       <c r="I241" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J241" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K241" t="s">
         <v>542</v>
@@ -10612,10 +10597,10 @@
         <v>545</v>
       </c>
       <c r="I242" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J242" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K242" t="s">
         <v>542</v>
@@ -10647,10 +10632,10 @@
         <v>545</v>
       </c>
       <c r="I243" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J243" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K243" t="s">
         <v>542</v>
@@ -10682,10 +10667,10 @@
         <v>545</v>
       </c>
       <c r="I244" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J244" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K244" t="s">
         <v>542</v>
@@ -10787,10 +10772,10 @@
         <v>545</v>
       </c>
       <c r="I247" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J247" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K247" t="s">
         <v>542</v>
@@ -11032,10 +11017,10 @@
         <v>545</v>
       </c>
       <c r="I254" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J254" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K254" t="s">
         <v>542</v>
@@ -11067,10 +11052,10 @@
         <v>545</v>
       </c>
       <c r="I255" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J255" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K255" t="s">
         <v>542</v>
@@ -11417,10 +11402,10 @@
         <v>545</v>
       </c>
       <c r="I265" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J265" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K265" t="s">
         <v>542</v>
@@ -11452,10 +11437,10 @@
         <v>545</v>
       </c>
       <c r="I266" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J266" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K266" t="s">
         <v>542</v>
@@ -12432,10 +12417,10 @@
         <v>545</v>
       </c>
       <c r="I294" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J294" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K294" t="s">
         <v>542</v>
@@ -12467,10 +12452,10 @@
         <v>545</v>
       </c>
       <c r="I295" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J295" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K295" t="s">
         <v>542</v>
@@ -12782,10 +12767,10 @@
         <v>545</v>
       </c>
       <c r="I304" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J304" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K304" t="s">
         <v>542</v>
@@ -13374,13 +13359,13 @@
         <v>543</v>
       </c>
       <c r="H321" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I321" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J321" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K321" t="s">
         <v>542</v>
@@ -13412,7 +13397,7 @@
         <v>545</v>
       </c>
       <c r="I322" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J322" t="s">
         <v>547</v>
@@ -13482,7 +13467,7 @@
         <v>545</v>
       </c>
       <c r="I324" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J324" t="s">
         <v>547</v>
@@ -13517,7 +13502,7 @@
         <v>545</v>
       </c>
       <c r="I325" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J325" t="s">
         <v>547</v>
@@ -13552,7 +13537,7 @@
         <v>545</v>
       </c>
       <c r="I326" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J326" t="s">
         <v>547</v>
@@ -13587,7 +13572,7 @@
         <v>545</v>
       </c>
       <c r="I327" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J327" t="s">
         <v>547</v>
@@ -13622,7 +13607,7 @@
         <v>545</v>
       </c>
       <c r="I328" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J328" t="s">
         <v>547</v>
@@ -13727,7 +13712,7 @@
         <v>545</v>
       </c>
       <c r="I331" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J331" t="s">
         <v>547</v>
@@ -13832,10 +13817,10 @@
         <v>545</v>
       </c>
       <c r="I334" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J334" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K334" t="s">
         <v>542</v>
@@ -13867,10 +13852,10 @@
         <v>545</v>
       </c>
       <c r="I335" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J335" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K335" t="s">
         <v>542</v>
@@ -13902,10 +13887,10 @@
         <v>545</v>
       </c>
       <c r="I336" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J336" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K336" t="s">
         <v>542</v>
@@ -13937,7 +13922,7 @@
         <v>545</v>
       </c>
       <c r="I337" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J337" t="s">
         <v>547</v>
@@ -13972,7 +13957,7 @@
         <v>545</v>
       </c>
       <c r="I338" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J338" t="s">
         <v>547</v>
@@ -14007,7 +13992,7 @@
         <v>545</v>
       </c>
       <c r="I339" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J339" t="s">
         <v>547</v>
@@ -14042,7 +14027,7 @@
         <v>545</v>
       </c>
       <c r="I340" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J340" t="s">
         <v>547</v>
@@ -14077,10 +14062,10 @@
         <v>545</v>
       </c>
       <c r="I341" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J341" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K341" t="s">
         <v>542</v>
@@ -14112,10 +14097,10 @@
         <v>545</v>
       </c>
       <c r="I342" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J342" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K342" t="s">
         <v>542</v>

--- a/data/misused_bar_graph_figures/cell/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/cell/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/cell/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9967A5C0-FA4B-FC4E-9B94-ADBB6CCB7255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBEE91-7B67-A240-8EF9-D4B47BE27220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="563">
   <si>
     <t>Fig Index</t>
   </si>
@@ -1702,10 +1702,13 @@
     <t>Characteristic concentration</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
     <t>10.1016:j.cell.2023.09.024_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1016:j.cell.2023.01.002_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1016:j.cell.2023.01.002</t>
   </si>
 </sst>
 </file>
@@ -2116,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K341"/>
+  <dimension ref="A1:K342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="183" workbookViewId="0">
-      <selection activeCell="E331" sqref="E331"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="183" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3592,10 +3595,10 @@
         <v>542</v>
       </c>
       <c r="I42" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K42" t="s">
         <v>539</v>
@@ -3627,10 +3630,10 @@
         <v>542</v>
       </c>
       <c r="I43" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K43" t="s">
         <v>539</v>
@@ -3662,10 +3665,10 @@
         <v>542</v>
       </c>
       <c r="I44" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K44" t="s">
         <v>539</v>
@@ -3697,10 +3700,10 @@
         <v>542</v>
       </c>
       <c r="I45" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K45" t="s">
         <v>539</v>
@@ -3732,10 +3735,10 @@
         <v>542</v>
       </c>
       <c r="I46" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K46" t="s">
         <v>539</v>
@@ -3767,10 +3770,10 @@
         <v>542</v>
       </c>
       <c r="I47" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K47" t="s">
         <v>539</v>
@@ -4128,10 +4131,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>561</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>562</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -4143,19 +4146,19 @@
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="G58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H58" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="I58" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="J58" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K58" t="s">
         <v>539</v>
@@ -4163,10 +4166,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>90</v>
@@ -4207,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
         <v>90</v>
@@ -4242,7 +4245,7 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
         <v>90</v>
@@ -4277,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -4303,7 +4306,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
@@ -4312,7 +4315,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
         <v>90</v>
@@ -4347,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
         <v>90</v>
@@ -4382,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -4408,7 +4411,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
         <v>90</v>
@@ -4417,7 +4420,7 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -4443,7 +4446,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -4452,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
         <v>90</v>
@@ -4487,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
@@ -4522,7 +4525,7 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
         <v>90</v>
@@ -4557,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -4583,7 +4586,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
         <v>90</v>
@@ -4592,7 +4595,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
         <v>90</v>
@@ -4627,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -4662,7 +4665,7 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -4688,7 +4691,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
         <v>90</v>
@@ -4697,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -4723,7 +4726,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
         <v>90</v>
@@ -4732,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -4758,7 +4761,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -4767,7 +4770,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
         <v>90</v>
@@ -4802,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -4828,7 +4831,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
         <v>90</v>
@@ -4837,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
         <v>90</v>
@@ -4872,7 +4875,7 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -4898,34 +4901,34 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H80" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="I80" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J80" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s">
         <v>539</v>
@@ -4933,7 +4936,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
         <v>117</v>
@@ -4942,25 +4945,25 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="G81" t="s">
         <v>540</v>
       </c>
       <c r="H81" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="I81" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="J81" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="K81" t="s">
         <v>539</v>
@@ -4968,7 +4971,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
         <v>117</v>
@@ -4977,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -5003,7 +5006,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
@@ -5012,25 +5015,25 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G83" t="s">
         <v>540</v>
       </c>
       <c r="H83" t="s">
-        <v>551</v>
+        <v>476</v>
       </c>
       <c r="I83" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="J83" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="K83" t="s">
         <v>539</v>
@@ -5038,34 +5041,34 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G84" t="s">
         <v>540</v>
       </c>
       <c r="H84" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I84" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J84" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K84" t="s">
         <v>539</v>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
         <v>122</v>
@@ -5082,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -5108,34 +5111,34 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G86" t="s">
         <v>540</v>
       </c>
       <c r="H86" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I86" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="J86" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="K86" t="s">
         <v>539</v>
@@ -5143,10 +5146,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -5158,19 +5161,19 @@
         <v>9</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G87" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H87" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I87" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="J87" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="K87" t="s">
         <v>539</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
         <v>127</v>
@@ -5187,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -5213,34 +5216,34 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G89" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H89" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I89" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="J89" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="K89" t="s">
         <v>539</v>
@@ -5248,7 +5251,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>130</v>
@@ -5257,7 +5260,7 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -5283,34 +5286,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H91" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I91" t="s">
-        <v>560</v>
+        <v>476</v>
       </c>
       <c r="J91" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K91" t="s">
         <v>539</v>
@@ -5318,7 +5321,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
         <v>133</v>
@@ -5327,13 +5330,13 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G92" t="s">
         <v>541</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
         <v>133</v>
@@ -5362,7 +5365,7 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
         <v>133</v>
@@ -5397,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -5423,7 +5426,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
@@ -5432,7 +5435,7 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -5458,7 +5461,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
         <v>133</v>
@@ -5467,7 +5470,7 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -5493,7 +5496,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>133</v>
@@ -5502,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="G97" t="s">
         <v>541</v>
@@ -5517,10 +5520,10 @@
         <v>542</v>
       </c>
       <c r="I97" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K97" t="s">
         <v>539</v>
@@ -5528,34 +5531,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G98" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H98" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I98" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="J98" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K98" t="s">
         <v>539</v>
@@ -5563,7 +5566,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>141</v>
@@ -5572,7 +5575,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -5598,7 +5601,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
         <v>141</v>
@@ -5607,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -5633,7 +5636,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
         <v>141</v>
@@ -5642,7 +5645,7 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -5668,16 +5671,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -5703,7 +5706,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
         <v>146</v>
@@ -5712,7 +5715,7 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
         <v>146</v>
@@ -5747,7 +5750,7 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
         <v>146</v>
@@ -5782,25 +5785,25 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="G105" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H105" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I105" t="s">
-        <v>560</v>
+        <v>476</v>
       </c>
       <c r="J105" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K105" t="s">
         <v>539</v>
@@ -5808,7 +5811,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
         <v>146</v>
@@ -5817,25 +5820,25 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G106" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H106" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I106" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="J106" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K106" t="s">
         <v>539</v>
@@ -5843,7 +5846,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
         <v>146</v>
@@ -5852,7 +5855,7 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
         <v>146</v>
@@ -5887,25 +5890,25 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G108" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H108" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I108" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="J108" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K108" t="s">
         <v>539</v>
@@ -5913,22 +5916,22 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G109" t="s">
         <v>541</v>
@@ -5937,10 +5940,10 @@
         <v>542</v>
       </c>
       <c r="I109" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J109" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K109" t="s">
         <v>539</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
         <v>154</v>
@@ -5957,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -5983,34 +5986,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H111" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I111" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="J111" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="K111" t="s">
         <v>539</v>
@@ -6018,7 +6021,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
         <v>157</v>
@@ -6027,13 +6030,13 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G112" t="s">
         <v>540</v>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
         <v>157</v>
@@ -6062,13 +6065,13 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G113" t="s">
         <v>540</v>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>157</v>
@@ -6097,7 +6100,7 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -6123,7 +6126,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
         <v>157</v>
@@ -6132,13 +6135,13 @@
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G115" t="s">
         <v>540</v>
@@ -6158,7 +6161,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
         <v>157</v>
@@ -6167,7 +6170,7 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -6193,7 +6196,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
         <v>157</v>
@@ -6202,7 +6205,7 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -6228,7 +6231,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
         <v>157</v>
@@ -6237,13 +6240,13 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G118" t="s">
         <v>540</v>
@@ -6263,34 +6266,34 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G119" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H119" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I119" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="J119" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K119" t="s">
         <v>539</v>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
         <v>166</v>
@@ -6307,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
         <v>166</v>
@@ -6342,7 +6345,7 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -6368,7 +6371,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
         <v>166</v>
@@ -6377,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -6403,22 +6406,22 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G123" t="s">
         <v>541</v>
@@ -6427,10 +6430,10 @@
         <v>542</v>
       </c>
       <c r="I123" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="J123" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K123" t="s">
         <v>539</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
         <v>171</v>
@@ -6447,13 +6450,13 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G124" t="s">
         <v>541</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
         <v>171</v>
@@ -6482,7 +6485,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -6508,7 +6511,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
         <v>171</v>
@@ -6517,7 +6520,7 @@
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -6543,7 +6546,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>171</v>
@@ -6552,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -6578,7 +6581,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
         <v>171</v>
@@ -6587,7 +6590,7 @@
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
         <v>171</v>
@@ -6622,7 +6625,7 @@
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -6648,7 +6651,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
         <v>171</v>
@@ -6657,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -6683,7 +6686,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" t="s">
         <v>171</v>
@@ -6692,7 +6695,7 @@
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" t="s">
         <v>171</v>
@@ -6727,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
@@ -6753,7 +6756,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
         <v>171</v>
@@ -6762,7 +6765,7 @@
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
@@ -6788,7 +6791,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
         <v>171</v>
@@ -6797,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B135" t="s">
         <v>171</v>
@@ -6832,7 +6835,7 @@
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -6858,7 +6861,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s">
         <v>171</v>
@@ -6867,7 +6870,7 @@
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
@@ -6893,7 +6896,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s">
         <v>171</v>
@@ -6902,7 +6905,7 @@
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B138" t="s">
         <v>171</v>
@@ -6937,7 +6940,7 @@
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -6963,7 +6966,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B139" t="s">
         <v>171</v>
@@ -6972,7 +6975,7 @@
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
@@ -6998,7 +7001,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
         <v>171</v>
@@ -7007,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
         <v>171</v>
@@ -7042,7 +7045,7 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
@@ -7068,7 +7071,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B142" t="s">
         <v>171</v>
@@ -7077,7 +7080,7 @@
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -7103,7 +7106,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
         <v>171</v>
@@ -7112,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
         <v>171</v>
@@ -7147,7 +7150,7 @@
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -7173,7 +7176,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
         <v>171</v>
@@ -7182,7 +7185,7 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
@@ -7208,7 +7211,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
         <v>171</v>
@@ -7217,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -7243,7 +7246,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
         <v>171</v>
@@ -7252,7 +7255,7 @@
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
         <v>171</v>
@@ -7287,7 +7290,7 @@
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -7313,7 +7316,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
         <v>171</v>
@@ -7322,7 +7325,7 @@
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
         <v>171</v>
@@ -7357,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
@@ -7383,7 +7386,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
         <v>171</v>
@@ -7392,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
@@ -7418,7 +7421,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
         <v>171</v>
@@ -7427,7 +7430,7 @@
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -7453,7 +7456,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B153" t="s">
         <v>171</v>
@@ -7462,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
         <v>171</v>
@@ -7497,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
@@ -7523,7 +7526,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B155" t="s">
         <v>171</v>
@@ -7532,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B156" t="s">
         <v>171</v>
@@ -7567,7 +7570,7 @@
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -7593,7 +7596,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" t="s">
         <v>171</v>
@@ -7602,7 +7605,7 @@
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -7628,7 +7631,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B158" t="s">
         <v>171</v>
@@ -7637,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -7663,7 +7666,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B159" t="s">
         <v>171</v>
@@ -7672,13 +7675,13 @@
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="G159" t="s">
         <v>541</v>
@@ -7687,10 +7690,10 @@
         <v>542</v>
       </c>
       <c r="I159" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J159" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K159" t="s">
         <v>539</v>
@@ -7698,7 +7701,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B160" t="s">
         <v>171</v>
@@ -7707,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -7722,10 +7725,10 @@
         <v>542</v>
       </c>
       <c r="I160" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J160" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K160" t="s">
         <v>539</v>
@@ -7733,7 +7736,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B161" t="s">
         <v>171</v>
@@ -7742,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
@@ -7757,10 +7760,10 @@
         <v>542</v>
       </c>
       <c r="I161" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J161" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K161" t="s">
         <v>539</v>
@@ -7768,7 +7771,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B162" t="s">
         <v>171</v>
@@ -7777,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -7792,10 +7795,10 @@
         <v>542</v>
       </c>
       <c r="I162" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J162" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K162" t="s">
         <v>539</v>
@@ -7803,7 +7806,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
@@ -7812,7 +7815,7 @@
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -7827,10 +7830,10 @@
         <v>542</v>
       </c>
       <c r="I163" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J163" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K163" t="s">
         <v>539</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B164" t="s">
         <v>171</v>
@@ -7847,7 +7850,7 @@
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
@@ -7862,10 +7865,10 @@
         <v>542</v>
       </c>
       <c r="I164" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J164" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K164" t="s">
         <v>539</v>
@@ -7873,7 +7876,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B165" t="s">
         <v>171</v>
@@ -7882,13 +7885,13 @@
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G165" t="s">
         <v>541</v>
@@ -7908,7 +7911,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
         <v>171</v>
@@ -7917,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
@@ -7943,7 +7946,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
         <v>171</v>
@@ -7952,7 +7955,7 @@
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
@@ -7978,7 +7981,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
         <v>171</v>
@@ -7987,7 +7990,7 @@
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -8013,7 +8016,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
         <v>171</v>
@@ -8022,7 +8025,7 @@
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -8057,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -8083,7 +8086,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -8092,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
@@ -8127,7 +8130,7 @@
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
@@ -8162,7 +8165,7 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
@@ -8188,7 +8191,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
         <v>171</v>
@@ -8197,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
@@ -8223,22 +8226,22 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="G175" t="s">
         <v>541</v>
@@ -8247,7 +8250,7 @@
         <v>542</v>
       </c>
       <c r="I175" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="J175" t="s">
         <v>544</v>
@@ -8258,7 +8261,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
         <v>255</v>
@@ -8267,7 +8270,7 @@
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
         <v>255</v>
@@ -8302,7 +8305,7 @@
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
@@ -8328,7 +8331,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
         <v>255</v>
@@ -8337,7 +8340,7 @@
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
@@ -8363,7 +8366,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
         <v>255</v>
@@ -8372,7 +8375,7 @@
         <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B180" t="s">
         <v>255</v>
@@ -8407,7 +8410,7 @@
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -8433,34 +8436,34 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G181" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H181" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I181" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="J181" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K181" t="s">
         <v>539</v>
@@ -8468,10 +8471,10 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -8483,19 +8486,19 @@
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="G182" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H182" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I182" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J182" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K182" t="s">
         <v>539</v>
@@ -8503,7 +8506,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B183" t="s">
         <v>264</v>
@@ -8512,25 +8515,25 @@
         <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="G183" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H183" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="I183" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="J183" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K183" t="s">
         <v>539</v>
@@ -8538,7 +8541,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
         <v>264</v>
@@ -8547,25 +8550,25 @@
         <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G184" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H184" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="I184" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J184" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K184" t="s">
         <v>539</v>
@@ -8573,7 +8576,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B185" t="s">
         <v>264</v>
@@ -8582,13 +8585,13 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G185" t="s">
         <v>541</v>
@@ -8597,10 +8600,10 @@
         <v>542</v>
       </c>
       <c r="I185" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J185" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K185" t="s">
         <v>539</v>
@@ -8608,34 +8611,34 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G186" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H186" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I186" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="J186" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="K186" t="s">
         <v>539</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B187" t="s">
         <v>269</v>
@@ -8652,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
@@ -8678,34 +8681,34 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B188" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H188" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I188" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="J188" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K188" t="s">
         <v>539</v>
@@ -8713,10 +8716,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -8728,7 +8731,7 @@
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G189" t="s">
         <v>541</v>
@@ -8737,10 +8740,10 @@
         <v>542</v>
       </c>
       <c r="I189" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J189" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K189" t="s">
         <v>539</v>
@@ -8748,10 +8751,10 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -8763,19 +8766,19 @@
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G190" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H190" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="I190" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J190" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="K190" t="s">
         <v>539</v>
@@ -8783,7 +8786,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
         <v>276</v>
@@ -8792,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
@@ -8818,7 +8821,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
         <v>276</v>
@@ -8827,7 +8830,7 @@
         <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
@@ -8853,22 +8856,22 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B193" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E193" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G193" t="s">
         <v>540</v>
@@ -8880,7 +8883,7 @@
         <v>552</v>
       </c>
       <c r="J193" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K193" t="s">
         <v>539</v>
@@ -8888,7 +8891,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
         <v>280</v>
@@ -8897,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
@@ -8923,7 +8926,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
         <v>280</v>
@@ -8932,7 +8935,7 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B196" t="s">
         <v>280</v>
@@ -8967,7 +8970,7 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
@@ -8993,7 +8996,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B197" t="s">
         <v>280</v>
@@ -9002,7 +9005,7 @@
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -9028,7 +9031,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
         <v>280</v>
@@ -9037,7 +9040,7 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -9063,34 +9066,34 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="G199" t="s">
         <v>540</v>
       </c>
       <c r="H199" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="I199" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="J199" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="K199" t="s">
         <v>539</v>
@@ -9098,10 +9101,10 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -9113,7 +9116,7 @@
         <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>540</v>
@@ -9133,10 +9136,10 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B201" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C201" t="s">
         <v>7</v>
@@ -9148,19 +9151,19 @@
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G201" t="s">
         <v>540</v>
       </c>
       <c r="H201" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="I201" t="s">
-        <v>554</v>
-      </c>
-      <c r="J201" s="7" t="s">
-        <v>554</v>
+        <v>476</v>
+      </c>
+      <c r="J201" t="s">
+        <v>476</v>
       </c>
       <c r="K201" t="s">
         <v>539</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B202" t="s">
         <v>291</v>
@@ -9177,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
@@ -9203,7 +9206,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B203" t="s">
         <v>291</v>
@@ -9212,7 +9215,7 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B204" t="s">
         <v>291</v>
@@ -9247,7 +9250,7 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -9273,7 +9276,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B205" t="s">
         <v>291</v>
@@ -9282,7 +9285,7 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
@@ -9308,22 +9311,22 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G206" t="s">
         <v>540</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B207" t="s">
         <v>297</v>
@@ -9352,25 +9355,25 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G207" t="s">
         <v>540</v>
       </c>
       <c r="H207" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I207" t="s">
-        <v>476</v>
-      </c>
-      <c r="J207" t="s">
-        <v>476</v>
+        <v>554</v>
+      </c>
+      <c r="J207" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="K207" t="s">
         <v>539</v>
@@ -9378,7 +9381,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>297</v>
@@ -9387,25 +9390,25 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G208" t="s">
         <v>540</v>
       </c>
       <c r="H208" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="I208" t="s">
-        <v>554</v>
-      </c>
-      <c r="J208" s="7" t="s">
-        <v>554</v>
+        <v>476</v>
+      </c>
+      <c r="J208" t="s">
+        <v>476</v>
       </c>
       <c r="K208" t="s">
         <v>539</v>
@@ -9413,7 +9416,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>297</v>
@@ -9422,7 +9425,7 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E209" t="s">
         <v>9</v>
@@ -9448,7 +9451,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>297</v>
@@ -9457,7 +9460,7 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
@@ -9483,7 +9486,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>297</v>
@@ -9492,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
         <v>9</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>297</v>
@@ -9527,25 +9530,25 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G212" t="s">
         <v>540</v>
       </c>
       <c r="H212" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I212" t="s">
-        <v>476</v>
-      </c>
-      <c r="J212" t="s">
-        <v>476</v>
+        <v>554</v>
+      </c>
+      <c r="J212" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="K212" t="s">
         <v>539</v>
@@ -9553,7 +9556,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>297</v>
@@ -9562,25 +9565,25 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E213" t="s">
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G213" t="s">
         <v>540</v>
       </c>
       <c r="H213" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="I213" t="s">
-        <v>554</v>
-      </c>
-      <c r="J213" s="7" t="s">
-        <v>554</v>
+        <v>476</v>
+      </c>
+      <c r="J213" t="s">
+        <v>476</v>
       </c>
       <c r="K213" t="s">
         <v>539</v>
@@ -9588,7 +9591,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>297</v>
@@ -9597,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
@@ -9623,7 +9626,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>297</v>
@@ -9632,7 +9635,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>297</v>
@@ -9667,7 +9670,7 @@
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
@@ -9693,7 +9696,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>297</v>
@@ -9702,7 +9705,7 @@
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
@@ -9728,7 +9731,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>297</v>
@@ -9737,7 +9740,7 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
@@ -9763,7 +9766,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>297</v>
@@ -9772,25 +9775,25 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G219" t="s">
         <v>540</v>
       </c>
       <c r="H219" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I219" t="s">
-        <v>476</v>
-      </c>
-      <c r="J219" t="s">
-        <v>476</v>
+        <v>554</v>
+      </c>
+      <c r="J219" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="K219" t="s">
         <v>539</v>
@@ -9798,7 +9801,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>297</v>
@@ -9807,25 +9810,25 @@
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G220" t="s">
         <v>540</v>
       </c>
       <c r="H220" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="I220" t="s">
-        <v>554</v>
-      </c>
-      <c r="J220" s="7" t="s">
-        <v>554</v>
+        <v>476</v>
+      </c>
+      <c r="J220" t="s">
+        <v>476</v>
       </c>
       <c r="K220" t="s">
         <v>539</v>
@@ -9833,7 +9836,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>297</v>
@@ -9842,7 +9845,7 @@
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
@@ -9868,7 +9871,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
         <v>297</v>
@@ -9877,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
@@ -9903,7 +9906,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
         <v>297</v>
@@ -9912,7 +9915,7 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E223" t="s">
         <v>9</v>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
         <v>297</v>
@@ -9947,7 +9950,7 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E224" t="s">
         <v>9</v>
@@ -9973,7 +9976,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B225" t="s">
         <v>297</v>
@@ -9982,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
@@ -10008,7 +10011,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B226" t="s">
         <v>297</v>
@@ -10017,7 +10020,7 @@
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
@@ -10043,7 +10046,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
         <v>297</v>
@@ -10052,7 +10055,7 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
@@ -10078,7 +10081,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
         <v>297</v>
@@ -10087,7 +10090,7 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
@@ -10113,34 +10116,34 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G229" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H229" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="I229" t="s">
-        <v>545</v>
-      </c>
-      <c r="J229" t="s">
-        <v>545</v>
+        <v>554</v>
+      </c>
+      <c r="J229" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="K229" t="s">
         <v>539</v>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B230" t="s">
         <v>321</v>
@@ -10157,7 +10160,7 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
@@ -10183,7 +10186,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B231" t="s">
         <v>321</v>
@@ -10192,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
@@ -10218,34 +10221,34 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B232" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G232" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H232" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I232" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J232" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K232" t="s">
         <v>539</v>
@@ -10253,10 +10256,10 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B233" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -10268,19 +10271,19 @@
         <v>9</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G233" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H233" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I233" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J233" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K233" t="s">
         <v>539</v>
@@ -10288,7 +10291,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B234" t="s">
         <v>327</v>
@@ -10297,7 +10300,7 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -10323,7 +10326,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B235" t="s">
         <v>327</v>
@@ -10332,7 +10335,7 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B236" t="s">
         <v>327</v>
@@ -10367,7 +10370,7 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
@@ -10393,7 +10396,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
@@ -10402,7 +10405,7 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
@@ -10428,7 +10431,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B238" t="s">
         <v>327</v>
@@ -10437,7 +10440,7 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
@@ -10463,7 +10466,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B239" t="s">
         <v>327</v>
@@ -10472,13 +10475,13 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G239" t="s">
         <v>541</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B240" t="s">
         <v>327</v>
@@ -10507,13 +10510,13 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G240" t="s">
         <v>541</v>
@@ -10533,7 +10536,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B241" t="s">
         <v>327</v>
@@ -10542,7 +10545,7 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
@@ -10568,7 +10571,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B242" t="s">
         <v>327</v>
@@ -10577,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
@@ -10603,7 +10606,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B243" t="s">
         <v>327</v>
@@ -10612,7 +10615,7 @@
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
@@ -10638,22 +10641,22 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G244" t="s">
         <v>541</v>
@@ -10673,10 +10676,10 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B245" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -10688,19 +10691,19 @@
         <v>9</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="G245" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H245" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I245" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J245" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K245" t="s">
         <v>539</v>
@@ -10708,10 +10711,10 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B246" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -10723,7 +10726,7 @@
         <v>9</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="G246" t="s">
         <v>540</v>
@@ -10743,7 +10746,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B247" t="s">
         <v>343</v>
@@ -10752,25 +10755,25 @@
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E247" t="s">
         <v>9</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G247" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H247" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I247" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="J247" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K247" t="s">
         <v>539</v>
@@ -10778,22 +10781,22 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B248" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
         <v>9</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G248" t="s">
         <v>541</v>
@@ -10802,10 +10805,10 @@
         <v>542</v>
       </c>
       <c r="I248" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="J248" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K248" t="s">
         <v>539</v>
@@ -10813,7 +10816,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B249" t="s">
         <v>346</v>
@@ -10822,7 +10825,7 @@
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E249" t="s">
         <v>9</v>
@@ -10848,7 +10851,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250" t="s">
         <v>346</v>
@@ -10857,7 +10860,7 @@
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E250" t="s">
         <v>9</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B251" t="s">
         <v>346</v>
@@ -10892,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E251" t="s">
         <v>9</v>
@@ -10918,7 +10921,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B252" t="s">
         <v>346</v>
@@ -10927,25 +10930,25 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E252" t="s">
         <v>9</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G252" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H252" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I252" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="J252" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K252" t="s">
         <v>539</v>
@@ -10953,7 +10956,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B253" t="s">
         <v>346</v>
@@ -10962,25 +10965,25 @@
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E253" t="s">
         <v>9</v>
       </c>
-      <c r="F253" s="4" t="s">
-        <v>505</v>
+      <c r="F253" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="G253" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H253" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I253" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="J253" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K253" t="s">
         <v>539</v>
@@ -10988,22 +10991,22 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B254" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E254" t="s">
         <v>9</v>
       </c>
-      <c r="F254" s="3" t="s">
-        <v>507</v>
+      <c r="F254" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G254" t="s">
         <v>541</v>
@@ -11012,10 +11015,10 @@
         <v>542</v>
       </c>
       <c r="I254" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J254" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K254" t="s">
         <v>539</v>
@@ -11023,7 +11026,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B255" t="s">
         <v>353</v>
@@ -11032,7 +11035,7 @@
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E255" t="s">
         <v>9</v>
@@ -11058,34 +11061,34 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B256" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E256" t="s">
         <v>9</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G256" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H256" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I256" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J256" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K256" t="s">
         <v>539</v>
@@ -11093,7 +11096,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B257" t="s">
         <v>356</v>
@@ -11102,7 +11105,7 @@
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E257" t="s">
         <v>9</v>
@@ -11128,7 +11131,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B258" t="s">
         <v>356</v>
@@ -11137,7 +11140,7 @@
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
@@ -11163,7 +11166,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B259" t="s">
         <v>356</v>
@@ -11172,7 +11175,7 @@
         <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B260" t="s">
         <v>356</v>
@@ -11207,7 +11210,7 @@
         <v>7</v>
       </c>
       <c r="D260" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
@@ -11233,7 +11236,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B261" t="s">
         <v>356</v>
@@ -11242,7 +11245,7 @@
         <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
@@ -11268,22 +11271,22 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E262" t="s">
         <v>9</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G262" t="s">
         <v>540</v>
@@ -11303,7 +11306,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B263" t="s">
         <v>363</v>
@@ -11312,7 +11315,7 @@
         <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
@@ -11338,22 +11341,22 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B264" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E264" t="s">
         <v>9</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G264" t="s">
         <v>540</v>
@@ -11373,10 +11376,10 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B265" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -11388,19 +11391,19 @@
         <v>9</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G265" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H265" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I265" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J265" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K265" t="s">
         <v>539</v>
@@ -11408,7 +11411,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B266" t="s">
         <v>368</v>
@@ -11417,13 +11420,13 @@
         <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G266" t="s">
         <v>541</v>
@@ -11443,7 +11446,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B267" t="s">
         <v>368</v>
@@ -11452,25 +11455,25 @@
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E267" t="s">
         <v>9</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G267" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H267" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I267" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J267" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K267" t="s">
         <v>539</v>
@@ -11478,22 +11481,22 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E268" t="s">
         <v>9</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="G268" t="s">
         <v>540</v>
@@ -11513,7 +11516,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B269" t="s">
         <v>372</v>
@@ -11522,7 +11525,7 @@
         <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E269" t="s">
         <v>9</v>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B270" t="s">
         <v>372</v>
@@ -11557,7 +11560,7 @@
         <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E270" t="s">
         <v>9</v>
@@ -11583,7 +11586,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B271" t="s">
         <v>372</v>
@@ -11592,7 +11595,7 @@
         <v>7</v>
       </c>
       <c r="D271" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E271" t="s">
         <v>9</v>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B272" t="s">
         <v>372</v>
@@ -11627,7 +11630,7 @@
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E272" t="s">
         <v>9</v>
@@ -11653,7 +11656,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
         <v>372</v>
@@ -11662,7 +11665,7 @@
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E273" t="s">
         <v>9</v>
@@ -11688,7 +11691,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B274" t="s">
         <v>372</v>
@@ -11697,7 +11700,7 @@
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E274" t="s">
         <v>9</v>
@@ -11723,7 +11726,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B275" t="s">
         <v>372</v>
@@ -11732,7 +11735,7 @@
         <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E275" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
         <v>372</v>
@@ -11767,7 +11770,7 @@
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E276" t="s">
         <v>9</v>
@@ -11793,7 +11796,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B277" t="s">
         <v>372</v>
@@ -11802,7 +11805,7 @@
         <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E277" t="s">
         <v>9</v>
@@ -11828,7 +11831,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
         <v>372</v>
@@ -11837,7 +11840,7 @@
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E278" t="s">
         <v>9</v>
@@ -11863,7 +11866,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
         <v>372</v>
@@ -11872,7 +11875,7 @@
         <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
@@ -11898,7 +11901,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B280" t="s">
         <v>372</v>
@@ -11907,7 +11910,7 @@
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
@@ -11933,7 +11936,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B281" t="s">
         <v>372</v>
@@ -11942,7 +11945,7 @@
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E281" t="s">
         <v>9</v>
@@ -11968,7 +11971,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B282" t="s">
         <v>372</v>
@@ -11977,7 +11980,7 @@
         <v>7</v>
       </c>
       <c r="D282" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E282" t="s">
         <v>9</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B283" t="s">
         <v>372</v>
@@ -12012,7 +12015,7 @@
         <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
@@ -12038,7 +12041,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B284" t="s">
         <v>372</v>
@@ -12047,7 +12050,7 @@
         <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E284" t="s">
         <v>9</v>
@@ -12073,7 +12076,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B285" t="s">
         <v>372</v>
@@ -12082,7 +12085,7 @@
         <v>7</v>
       </c>
       <c r="D285" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E285" t="s">
         <v>9</v>
@@ -12108,7 +12111,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B286" t="s">
         <v>372</v>
@@ -12117,7 +12120,7 @@
         <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E286" t="s">
         <v>9</v>
@@ -12143,7 +12146,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B287" t="s">
         <v>372</v>
@@ -12152,7 +12155,7 @@
         <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="E287" t="s">
         <v>9</v>
@@ -12178,7 +12181,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B288" t="s">
         <v>372</v>
@@ -12187,7 +12190,7 @@
         <v>7</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E288" t="s">
         <v>9</v>
@@ -12213,7 +12216,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B289" t="s">
         <v>372</v>
@@ -12222,7 +12225,7 @@
         <v>7</v>
       </c>
       <c r="D289" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E289" t="s">
         <v>9</v>
@@ -12248,7 +12251,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B290" t="s">
         <v>372</v>
@@ -12257,7 +12260,7 @@
         <v>7</v>
       </c>
       <c r="D290" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E290" t="s">
         <v>9</v>
@@ -12283,7 +12286,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B291" t="s">
         <v>372</v>
@@ -12292,7 +12295,7 @@
         <v>7</v>
       </c>
       <c r="D291" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E291" t="s">
         <v>9</v>
@@ -12318,7 +12321,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B292" t="s">
         <v>372</v>
@@ -12327,7 +12330,7 @@
         <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E292" t="s">
         <v>9</v>
@@ -12353,7 +12356,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B293" t="s">
         <v>372</v>
@@ -12362,7 +12365,7 @@
         <v>7</v>
       </c>
       <c r="D293" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E293" t="s">
         <v>9</v>
@@ -12388,34 +12391,34 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B294" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E294" t="s">
         <v>9</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="G294" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H294" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I294" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J294" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K294" t="s">
         <v>539</v>
@@ -12423,7 +12426,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B295" t="s">
         <v>399</v>
@@ -12432,7 +12435,7 @@
         <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E295" t="s">
         <v>9</v>
@@ -12458,34 +12461,34 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B296" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E296" t="s">
         <v>9</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G296" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H296" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I296" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J296" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K296" t="s">
         <v>539</v>
@@ -12493,10 +12496,10 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B297" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
@@ -12508,7 +12511,7 @@
         <v>9</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G297" t="s">
         <v>540</v>
@@ -12528,10 +12531,10 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -12543,19 +12546,19 @@
         <v>9</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="G298" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H298" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I298" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="J298" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K298" t="s">
         <v>539</v>
@@ -12563,7 +12566,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B299" t="s">
         <v>406</v>
@@ -12572,25 +12575,25 @@
         <v>7</v>
       </c>
       <c r="D299" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E299" t="s">
         <v>9</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="G299" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H299" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I299" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="J299" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K299" t="s">
         <v>539</v>
@@ -12598,7 +12601,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B300" t="s">
         <v>406</v>
@@ -12607,7 +12610,7 @@
         <v>7</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E300" t="s">
         <v>9</v>
@@ -12633,7 +12636,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B301" t="s">
         <v>406</v>
@@ -12642,7 +12645,7 @@
         <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E301" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B302" t="s">
         <v>406</v>
@@ -12677,7 +12680,7 @@
         <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E302" t="s">
         <v>9</v>
@@ -12703,7 +12706,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B303" t="s">
         <v>406</v>
@@ -12712,7 +12715,7 @@
         <v>7</v>
       </c>
       <c r="D303" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E303" t="s">
         <v>9</v>
@@ -12738,7 +12741,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B304" t="s">
         <v>406</v>
@@ -12747,25 +12750,25 @@
         <v>7</v>
       </c>
       <c r="D304" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E304" t="s">
         <v>9</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G304" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H304" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I304" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J304" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K304" t="s">
         <v>539</v>
@@ -12773,7 +12776,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B305" t="s">
         <v>406</v>
@@ -12782,25 +12785,25 @@
         <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E305" t="s">
         <v>9</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G305" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H305" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I305" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J305" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="K305" t="s">
         <v>539</v>
@@ -12808,7 +12811,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B306" t="s">
         <v>406</v>
@@ -12817,13 +12820,13 @@
         <v>7</v>
       </c>
       <c r="D306" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E306" t="s">
         <v>9</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G306" t="s">
         <v>540</v>
@@ -12843,7 +12846,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B307" t="s">
         <v>406</v>
@@ -12852,13 +12855,13 @@
         <v>7</v>
       </c>
       <c r="D307" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E307" t="s">
         <v>9</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G307" t="s">
         <v>540</v>
@@ -12878,7 +12881,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B308" t="s">
         <v>406</v>
@@ -12887,13 +12890,13 @@
         <v>7</v>
       </c>
       <c r="D308" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E308" t="s">
         <v>9</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G308" t="s">
         <v>540</v>
@@ -12913,7 +12916,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B309" t="s">
         <v>406</v>
@@ -12922,13 +12925,13 @@
         <v>7</v>
       </c>
       <c r="D309" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E309" t="s">
         <v>9</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G309" t="s">
         <v>540</v>
@@ -12948,7 +12951,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B310" t="s">
         <v>406</v>
@@ -12957,13 +12960,13 @@
         <v>7</v>
       </c>
       <c r="D310" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E310" t="s">
         <v>9</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G310" t="s">
         <v>540</v>
@@ -12983,7 +12986,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B311" t="s">
         <v>406</v>
@@ -12992,13 +12995,13 @@
         <v>7</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E311" t="s">
         <v>9</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G311" t="s">
         <v>540</v>
@@ -13018,7 +13021,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B312" t="s">
         <v>406</v>
@@ -13027,13 +13030,13 @@
         <v>7</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E312" t="s">
         <v>9</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G312" t="s">
         <v>540</v>
@@ -13053,7 +13056,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B313" t="s">
         <v>406</v>
@@ -13062,7 +13065,7 @@
         <v>7</v>
       </c>
       <c r="D313" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E313" t="s">
         <v>9</v>
@@ -13088,7 +13091,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B314" t="s">
         <v>406</v>
@@ -13097,7 +13100,7 @@
         <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E314" t="s">
         <v>9</v>
@@ -13123,7 +13126,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B315" t="s">
         <v>406</v>
@@ -13132,7 +13135,7 @@
         <v>7</v>
       </c>
       <c r="D315" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E315" t="s">
         <v>9</v>
@@ -13158,7 +13161,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B316" t="s">
         <v>406</v>
@@ -13167,7 +13170,7 @@
         <v>7</v>
       </c>
       <c r="D316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E316" t="s">
         <v>9</v>
@@ -13193,7 +13196,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B317" t="s">
         <v>406</v>
@@ -13202,7 +13205,7 @@
         <v>7</v>
       </c>
       <c r="D317" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E317" t="s">
         <v>9</v>
@@ -13228,34 +13231,34 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B318" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E318" t="s">
         <v>9</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G318" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H318" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I318" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="J318" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K318" t="s">
         <v>539</v>
@@ -13263,7 +13266,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B319" t="s">
         <v>427</v>
@@ -13272,25 +13275,25 @@
         <v>7</v>
       </c>
       <c r="D319" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E319" t="s">
         <v>9</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G319" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H319" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I319" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="J319" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K319" t="s">
         <v>539</v>
@@ -13298,22 +13301,22 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B320" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
       <c r="D320" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E320" t="s">
         <v>9</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G320" t="s">
         <v>540</v>
@@ -13333,7 +13336,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B321" t="s">
         <v>430</v>
@@ -13342,25 +13345,25 @@
         <v>7</v>
       </c>
       <c r="D321" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E321" t="s">
         <v>9</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G321" t="s">
         <v>540</v>
       </c>
       <c r="H321" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="I321" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="J321" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="K321" t="s">
         <v>539</v>
@@ -13368,34 +13371,34 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B322" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
       </c>
       <c r="D322" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E322" t="s">
         <v>9</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="G322" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H322" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="I322" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J322" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K322" t="s">
         <v>539</v>
@@ -13403,7 +13406,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B323" t="s">
         <v>433</v>
@@ -13412,13 +13415,13 @@
         <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E323" t="s">
         <v>9</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="G323" t="s">
         <v>541</v>
@@ -13438,7 +13441,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B324" t="s">
         <v>433</v>
@@ -13447,7 +13450,7 @@
         <v>7</v>
       </c>
       <c r="D324" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E324" t="s">
         <v>9</v>
@@ -13473,7 +13476,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B325" t="s">
         <v>433</v>
@@ -13482,13 +13485,13 @@
         <v>7</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E325" t="s">
         <v>9</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G325" t="s">
         <v>541</v>
@@ -13508,7 +13511,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B326" t="s">
         <v>433</v>
@@ -13517,13 +13520,13 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E326" t="s">
         <v>9</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G326" t="s">
         <v>541</v>
@@ -13543,7 +13546,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B327" t="s">
         <v>433</v>
@@ -13552,13 +13555,13 @@
         <v>7</v>
       </c>
       <c r="D327" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E327" t="s">
         <v>9</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="G327" t="s">
         <v>541</v>
@@ -13578,7 +13581,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B328" t="s">
         <v>433</v>
@@ -13587,25 +13590,25 @@
         <v>7</v>
       </c>
       <c r="D328" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E328" t="s">
         <v>9</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G328" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H328" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I328" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="J328" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K328" t="s">
         <v>539</v>
@@ -13613,7 +13616,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>561</v>
+        <v>439</v>
       </c>
       <c r="B329" t="s">
         <v>433</v>
@@ -13622,13 +13625,13 @@
         <v>7</v>
       </c>
       <c r="D329" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E329" t="s">
         <v>9</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G329" t="s">
         <v>540</v>
@@ -13648,7 +13651,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="B330" t="s">
         <v>433</v>
@@ -13657,25 +13660,25 @@
         <v>7</v>
       </c>
       <c r="D330" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E330" t="s">
         <v>9</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G330" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H330" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I330" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="J330" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="K330" t="s">
         <v>539</v>
@@ -13683,34 +13686,34 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B331" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
       <c r="D331" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E331" t="s">
         <v>9</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G331" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H331" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="I331" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="J331" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="K331" t="s">
         <v>539</v>
@@ -13718,7 +13721,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B332" t="s">
         <v>442</v>
@@ -13727,7 +13730,7 @@
         <v>7</v>
       </c>
       <c r="D332" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E332" t="s">
         <v>9</v>
@@ -13753,34 +13756,34 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B333" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E333" t="s">
         <v>9</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="G333" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H333" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I333" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="J333" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="K333" t="s">
         <v>539</v>
@@ -13788,10 +13791,10 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B334" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -13803,7 +13806,7 @@
         <v>9</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G334" t="s">
         <v>541</v>
@@ -13823,7 +13826,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B335" t="s">
         <v>447</v>
@@ -13832,7 +13835,7 @@
         <v>7</v>
       </c>
       <c r="D335" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E335" t="s">
         <v>9</v>
@@ -13858,22 +13861,22 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B336" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E336" t="s">
         <v>9</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G336" t="s">
         <v>541</v>
@@ -13882,10 +13885,10 @@
         <v>542</v>
       </c>
       <c r="I336" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="J336" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K336" t="s">
         <v>539</v>
@@ -13893,7 +13896,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B337" t="s">
         <v>450</v>
@@ -13902,7 +13905,7 @@
         <v>7</v>
       </c>
       <c r="D337" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E337" t="s">
         <v>9</v>
@@ -13928,7 +13931,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B338" t="s">
         <v>450</v>
@@ -13937,7 +13940,7 @@
         <v>7</v>
       </c>
       <c r="D338" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E338" t="s">
         <v>9</v>
@@ -13963,7 +13966,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B339" t="s">
         <v>450</v>
@@ -13972,7 +13975,7 @@
         <v>7</v>
       </c>
       <c r="D339" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E339" t="s">
         <v>9</v>
@@ -13998,22 +14001,22 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B340" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
       </c>
       <c r="D340" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E340" t="s">
         <v>9</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G340" t="s">
         <v>541</v>
@@ -14022,10 +14025,10 @@
         <v>542</v>
       </c>
       <c r="I340" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J340" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K340" t="s">
         <v>539</v>
@@ -14033,10 +14036,10 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B341" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -14048,7 +14051,7 @@
         <v>9</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G341" t="s">
         <v>541</v>
@@ -14063,6 +14066,41 @@
         <v>545</v>
       </c>
       <c r="K341" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B342" t="s">
+        <v>457</v>
+      </c>
+      <c r="C342" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G342" t="s">
+        <v>541</v>
+      </c>
+      <c r="H342" t="s">
+        <v>542</v>
+      </c>
+      <c r="I342" t="s">
+        <v>545</v>
+      </c>
+      <c r="J342" t="s">
+        <v>545</v>
+      </c>
+      <c r="K342" t="s">
         <v>539</v>
       </c>
     </row>
